--- a/src/generated_spreadsheet.xlsx
+++ b/src/generated_spreadsheet.xlsx
@@ -758,6 +758,9 @@
       <c r="B5">
         <v>34000</v>
       </c>
+      <c r="C5">
+        <v>19500</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
@@ -766,6 +769,15 @@
       <c r="B6">
         <v>10000</v>
       </c>
+      <c r="C6">
+        <v>20000</v>
+      </c>
+      <c r="D6">
+        <v>9500</v>
+      </c>
+      <c r="E6">
+        <v>9500</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
@@ -774,6 +786,15 @@
       <c r="B7">
         <v>18000</v>
       </c>
+      <c r="C7">
+        <v>21250</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
@@ -782,6 +803,15 @@
       <c r="B8">
         <v>23000</v>
       </c>
+      <c r="C8">
+        <v>21250</v>
+      </c>
+      <c r="D8">
+        <v>-1750</v>
+      </c>
+      <c r="E8">
+        <v>1750</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
@@ -790,6 +820,15 @@
       <c r="B9">
         <v>38000</v>
       </c>
+      <c r="C9">
+        <v>22250</v>
+      </c>
+      <c r="D9">
+        <v>-16750</v>
+      </c>
+      <c r="E9">
+        <v>16750</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
@@ -798,6 +837,15 @@
       <c r="B10">
         <v>12000</v>
       </c>
+      <c r="C10">
+        <v>22750</v>
+      </c>
+      <c r="D10">
+        <v>10250</v>
+      </c>
+      <c r="E10">
+        <v>10250</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
@@ -806,6 +854,15 @@
       <c r="B11">
         <v>13000</v>
       </c>
+      <c r="C11">
+        <v>21500</v>
+      </c>
+      <c r="D11">
+        <v>9750</v>
+      </c>
+      <c r="E11">
+        <v>9750</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
@@ -814,6 +871,15 @@
       <c r="B12">
         <v>32000</v>
       </c>
+      <c r="C12">
+        <v>23750</v>
+      </c>
+      <c r="D12">
+        <v>-10500</v>
+      </c>
+      <c r="E12">
+        <v>10500</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
@@ -821,6 +887,15 @@
       </c>
       <c r="B13">
         <v>41000</v>
+      </c>
+      <c r="C13">
+        <v>24500</v>
+      </c>
+      <c r="D13">
+        <v>-17250</v>
+      </c>
+      <c r="E13">
+        <v>17250</v>
       </c>
     </row>
   </sheetData>

--- a/src/generated_spreadsheet.xlsx
+++ b/src/generated_spreadsheet.xlsx
@@ -778,6 +778,9 @@
       <c r="E6">
         <v>9500</v>
       </c>
+      <c r="F6">
+        <v>90250000</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
@@ -795,6 +798,9 @@
       <c r="E7">
         <v>2000</v>
       </c>
+      <c r="F7">
+        <v>47125000</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
@@ -812,6 +818,9 @@
       <c r="E8">
         <v>1750</v>
       </c>
+      <c r="F8">
+        <v>32437500</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
@@ -829,6 +838,9 @@
       <c r="E9">
         <v>16750</v>
       </c>
+      <c r="F9">
+        <v>94468750</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
@@ -846,6 +858,9 @@
       <c r="E10">
         <v>10250</v>
       </c>
+      <c r="F10">
+        <v>96587500</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
@@ -863,6 +878,9 @@
       <c r="E11">
         <v>9750</v>
       </c>
+      <c r="F11">
+        <v>96333333.33333333</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
@@ -880,6 +898,9 @@
       <c r="E12">
         <v>10500</v>
       </c>
+      <c r="F12">
+        <v>98321428.57142857</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
@@ -896,6 +917,9 @@
       </c>
       <c r="E13">
         <v>17250</v>
+      </c>
+      <c r="F13">
+        <v>123226562.5</v>
       </c>
     </row>
   </sheetData>

--- a/src/generated_spreadsheet.xlsx
+++ b/src/generated_spreadsheet.xlsx
@@ -773,13 +773,22 @@
         <v>20000</v>
       </c>
       <c r="D6">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="E6">
         <v>9500</v>
       </c>
       <c r="F6">
+        <v>9500</v>
+      </c>
+      <c r="G6">
         <v>90250000</v>
+      </c>
+      <c r="H6">
+        <v>9500</v>
+      </c>
+      <c r="I6">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -793,13 +802,22 @@
         <v>21250</v>
       </c>
       <c r="D7">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="E7">
         <v>2000</v>
       </c>
       <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
         <v>47125000</v>
+      </c>
+      <c r="H7">
+        <v>5750</v>
+      </c>
+      <c r="I7">
+        <v>11.11111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -813,13 +831,22 @@
         <v>21250</v>
       </c>
       <c r="D8">
+        <v>21250</v>
+      </c>
+      <c r="E8">
         <v>-1750</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1750</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>32437500</v>
+      </c>
+      <c r="H8">
+        <v>4416.666666666667</v>
+      </c>
+      <c r="I8">
+        <v>7.608695652173914</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -833,13 +860,22 @@
         <v>22250</v>
       </c>
       <c r="D9">
+        <v>21250</v>
+      </c>
+      <c r="E9">
         <v>-16750</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>16750</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>94468750</v>
+      </c>
+      <c r="H9">
+        <v>7500</v>
+      </c>
+      <c r="I9">
+        <v>44.07894736842105</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -853,13 +889,22 @@
         <v>22750</v>
       </c>
       <c r="D10">
-        <v>10250</v>
+        <v>22250</v>
       </c>
       <c r="E10">
         <v>10250</v>
       </c>
       <c r="F10">
+        <v>10250</v>
+      </c>
+      <c r="G10">
         <v>96587500</v>
+      </c>
+      <c r="H10">
+        <v>8050</v>
+      </c>
+      <c r="I10">
+        <v>85.41666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -873,13 +918,22 @@
         <v>21500</v>
       </c>
       <c r="D11">
-        <v>9750</v>
+        <v>22750</v>
       </c>
       <c r="E11">
         <v>9750</v>
       </c>
       <c r="F11">
+        <v>9750</v>
+      </c>
+      <c r="G11">
         <v>96333333.33333333</v>
+      </c>
+      <c r="H11">
+        <v>8333.333333333334</v>
+      </c>
+      <c r="I11">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,13 +947,22 @@
         <v>23750</v>
       </c>
       <c r="D12">
+        <v>21500</v>
+      </c>
+      <c r="E12">
         <v>-10500</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>10500</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>98321428.57142857</v>
+      </c>
+      <c r="H12">
+        <v>8642.857142857143</v>
+      </c>
+      <c r="I12">
+        <v>32.8125</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -913,13 +976,22 @@
         <v>24500</v>
       </c>
       <c r="D13">
+        <v>23750</v>
+      </c>
+      <c r="E13">
         <v>-17250</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>17250</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>123226562.5</v>
+      </c>
+      <c r="H13">
+        <v>9718.75</v>
+      </c>
+      <c r="I13">
+        <v>42.07317073170731</v>
       </c>
     </row>
   </sheetData>

--- a/src/generated_spreadsheet.xlsx
+++ b/src/generated_spreadsheet.xlsx
@@ -790,6 +790,12 @@
       <c r="I6">
         <v>95</v>
       </c>
+      <c r="J6">
+        <v>95</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
@@ -819,6 +825,12 @@
       <c r="I7">
         <v>11.11111111111111</v>
       </c>
+      <c r="J7">
+        <v>53.05555555555556</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
@@ -848,6 +860,12 @@
       <c r="I8">
         <v>7.608695652173914</v>
       </c>
+      <c r="J8">
+        <v>37.90660225442834</v>
+      </c>
+      <c r="K8">
+        <v>2.20754716981132</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
@@ -877,6 +895,12 @@
       <c r="I9">
         <v>44.07894736842105</v>
       </c>
+      <c r="J9">
+        <v>39.44968853292652</v>
+      </c>
+      <c r="K9">
+        <v>-0.9333333333333333</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
@@ -906,6 +930,12 @@
       <c r="I10">
         <v>85.41666666666666</v>
       </c>
+      <c r="J10">
+        <v>48.64308415967454</v>
+      </c>
+      <c r="K10">
+        <v>0.4037267080745341</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
@@ -935,6 +965,12 @@
       <c r="I11">
         <v>75</v>
       </c>
+      <c r="J11">
+        <v>53.03590346639546</v>
+      </c>
+      <c r="K11">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
@@ -964,6 +1000,12 @@
       <c r="I12">
         <v>32.8125</v>
       </c>
+      <c r="J12">
+        <v>50.14684582833896</v>
+      </c>
+      <c r="K12">
+        <v>0.2892561983471074</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
@@ -992,6 +1034,12 @@
       </c>
       <c r="I13">
         <v>42.07317073170731</v>
+      </c>
+      <c r="J13">
+        <v>49.13763644126</v>
+      </c>
+      <c r="K13">
+        <v>-1.517684887459807</v>
       </c>
     </row>
   </sheetData>

--- a/src/generated_spreadsheet.xlsx
+++ b/src/generated_spreadsheet.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,19 +438,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="E2">
-        <v>18962.79761904762</v>
+        <v>16592.58775540358</v>
       </c>
       <c r="F2">
-        <v>0.4218786784901515</v>
+        <v>0.8136163086197064</v>
       </c>
       <c r="G2">
-        <v>0.4483783894888748</v>
+        <v>0.7990631954310787</v>
       </c>
       <c r="H2">
-        <v>8502.508656632041</v>
+        <v>13258.52619230337</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="E3">
-        <v>19486.60714285714</v>
+        <v>16696.99979947653</v>
       </c>
       <c r="F3">
-        <v>0.6671248568155784</v>
+        <v>0.7186919892264847</v>
       </c>
       <c r="G3">
-        <v>0.750579597269404</v>
+        <v>0.721464109360443</v>
       </c>
       <c r="H3">
-        <v>14626.24974143281</v>
+        <v>12046.28608932083</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,22 +478,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>23000</v>
-      </c>
-      <c r="D4">
-        <v>19750</v>
+        <v>9750</v>
       </c>
       <c r="E4">
-        <v>20010.41666666667</v>
+        <v>16801.41184354947</v>
       </c>
       <c r="F4">
-        <v>1.149401353461739</v>
+        <v>0.5803083747240738</v>
       </c>
       <c r="G4">
-        <v>1.094929555896134</v>
+        <v>0.6224839517818885</v>
       </c>
       <c r="H4">
-        <v>21909.99663412993</v>
+        <v>10458.6092398877</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -501,45 +498,39 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>34000</v>
-      </c>
-      <c r="D5">
-        <v>20625</v>
+        <v>15500</v>
       </c>
       <c r="E5">
-        <v>20534.22619047619</v>
+        <v>16905.82388762242</v>
       </c>
       <c r="F5">
-        <v>1.65577215740271</v>
+        <v>0.916843810927683</v>
       </c>
       <c r="G5">
-        <v>1.667499414665056</v>
+        <v>0.940282778365902</v>
       </c>
       <c r="H5">
-        <v>34240.81015321891</v>
+        <v>15896.25505561825</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6">
-        <v>2</v>
-      </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>10000</v>
-      </c>
-      <c r="D6">
-        <v>21250</v>
+        <v>18000</v>
       </c>
       <c r="E6">
-        <v>21058.03571428571</v>
+        <v>17010.23593169537</v>
       </c>
       <c r="F6">
-        <v>0.474878100487598</v>
+        <v>1.058186380969613</v>
+      </c>
+      <c r="G6">
+        <v>1.03557671453311</v>
       </c>
       <c r="H6">
-        <v>9441.968139370634</v>
+        <v>17615.40423957815</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -547,19 +538,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>18000</v>
-      </c>
-      <c r="D7">
-        <v>21750</v>
+        <v>22000</v>
       </c>
       <c r="E7">
-        <v>21581.84523809524</v>
+        <v>17114.64797576832</v>
       </c>
       <c r="F7">
-        <v>0.8340343377232298</v>
+        <v>1.285448583643005</v>
+      </c>
+      <c r="G7">
+        <v>1.309659819539844</v>
       </c>
       <c r="H7">
-        <v>16198.89270714013</v>
+        <v>22414.36677943269</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -567,19 +558,22 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="D8">
-        <v>22500</v>
+        <v>16770.83333333333</v>
       </c>
       <c r="E8">
-        <v>22105.65476190476</v>
+        <v>17219.06001984127</v>
       </c>
       <c r="F8">
-        <v>1.040457758330528</v>
+        <v>1.451879485360575</v>
+      </c>
+      <c r="G8">
+        <v>1.443241428323308</v>
       </c>
       <c r="H8">
-        <v>24204.13475124563</v>
+        <v>24851.26077742049</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -587,42 +581,45 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>38000</v>
+        <v>24000</v>
       </c>
       <c r="D9">
-        <v>22125</v>
+        <v>16833.33333333333</v>
       </c>
       <c r="E9">
-        <v>22629.46428571429</v>
+        <v>17323.47206391422</v>
       </c>
       <c r="F9">
-        <v>1.679226671927402</v>
+        <v>1.385403567567345</v>
+      </c>
+      <c r="G9">
+        <v>1.392513824231017</v>
       </c>
       <c r="H9">
-        <v>37734.61845061236</v>
+        <v>24123.17433268038</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10">
-        <v>3</v>
-      </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="D10">
-        <v>22625</v>
+        <v>16968.75</v>
       </c>
       <c r="E10">
-        <v>23153.27380952381</v>
+        <v>17427.88410798716</v>
       </c>
       <c r="F10">
-        <v>0.5182852368404139</v>
+        <v>1.032827616276759</v>
+      </c>
+      <c r="G10">
+        <v>1.078487375864414</v>
       </c>
       <c r="H10">
-        <v>10381.42762210923</v>
+        <v>18795.7529984922</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -630,19 +627,22 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="D11">
-        <v>24125</v>
+        <v>17145.83333333333</v>
       </c>
       <c r="E11">
-        <v>23677.08333333334</v>
+        <v>17532.29615206011</v>
       </c>
       <c r="F11">
-        <v>0.5490541135063792</v>
+        <v>0.9411203105909881</v>
+      </c>
+      <c r="G11">
+        <v>0.9363513659920959</v>
       </c>
       <c r="H11">
-        <v>17771.53567284745</v>
+        <v>16416.38945095945</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -650,16 +650,22 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>32000</v>
+        <v>14500</v>
+      </c>
+      <c r="D12">
+        <v>17250</v>
       </c>
       <c r="E12">
-        <v>24200.89285714286</v>
+        <v>17636.70819613306</v>
       </c>
       <c r="F12">
-        <v>1.322265264711308</v>
+        <v>0.8221488862178487</v>
+      </c>
+      <c r="G12">
+        <v>0.8345867287217041</v>
       </c>
       <c r="H12">
-        <v>26498.27286836134</v>
+        <v>14719.36259882996</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -667,16 +673,976 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>41000</v>
+        <v>12250</v>
+      </c>
+      <c r="D13">
+        <v>17375</v>
       </c>
       <c r="E13">
-        <v>24724.70238095238</v>
+        <v>17741.12024020601</v>
       </c>
       <c r="F13">
-        <v>1.658260607884442</v>
+        <v>0.6904862733661148</v>
+      </c>
+      <c r="G13">
+        <v>0.8190753631925844</v>
       </c>
       <c r="H13">
-        <v>41228.42674800581</v>
+        <v>14531.31450419005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>14000</v>
+      </c>
+      <c r="D14">
+        <v>17541.66666666667</v>
+      </c>
+      <c r="E14">
+        <v>17845.53228427896</v>
+      </c>
+      <c r="F14">
+        <v>0.784510082242451</v>
+      </c>
+      <c r="H14">
+        <v>14259.70805124442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>13000</v>
+      </c>
+      <c r="D15">
+        <v>17687.5</v>
+      </c>
+      <c r="E15">
+        <v>17949.94432835191</v>
+      </c>
+      <c r="F15">
+        <v>0.7242362294944014</v>
+      </c>
+      <c r="H15">
+        <v>12950.24059792394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>12000</v>
+      </c>
+      <c r="D16">
+        <v>17895.83333333333</v>
+      </c>
+      <c r="E16">
+        <v>18054.35637242486</v>
+      </c>
+      <c r="F16">
+        <v>0.6646595288397034</v>
+      </c>
+      <c r="H16">
+        <v>11238.54710158555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>17500</v>
+      </c>
+      <c r="D17">
+        <v>18062.5</v>
+      </c>
+      <c r="E17">
+        <v>18158.76841649781</v>
+      </c>
+      <c r="F17">
+        <v>0.9637217458041211</v>
+      </c>
+      <c r="H17">
+        <v>17074.37721836755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>18500</v>
+      </c>
+      <c r="D18">
+        <v>18166.66666666667</v>
+      </c>
+      <c r="E18">
+        <v>18263.18046057075</v>
+      </c>
+      <c r="F18">
+        <v>1.012967048096608</v>
+      </c>
+      <c r="H18">
+        <v>18912.92441828315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>24500</v>
+      </c>
+      <c r="D19">
+        <v>18468.75</v>
+      </c>
+      <c r="E19">
+        <v>18367.5925046437</v>
+      </c>
+      <c r="F19">
+        <v>1.333871055436683</v>
+      </c>
+      <c r="H19">
+        <v>24055.29788501306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>26500</v>
+      </c>
+      <c r="D20">
+        <v>18770.83333333333</v>
+      </c>
+      <c r="E20">
+        <v>18472.00454871665</v>
+      </c>
+      <c r="F20">
+        <v>1.434603371286042</v>
+      </c>
+      <c r="H20">
+        <v>26659.56222888447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>26000</v>
+      </c>
+      <c r="D21">
+        <v>18854.16666666667</v>
+      </c>
+      <c r="E21">
+        <v>18576.4165927896</v>
+      </c>
+      <c r="F21">
+        <v>1.39962408089469</v>
+      </c>
+      <c r="H21">
+        <v>25867.91691013396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>21000</v>
+      </c>
+      <c r="D22">
+        <v>18916.66666666667</v>
+      </c>
+      <c r="E22">
+        <v>18680.82863686254</v>
+      </c>
+      <c r="F22">
+        <v>1.124147135452068</v>
+      </c>
+      <c r="H22">
+        <v>20147.03785554268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>17500</v>
+      </c>
+      <c r="D23">
+        <v>19041.66666666667</v>
+      </c>
+      <c r="E23">
+        <v>18785.24068093549</v>
+      </c>
+      <c r="F23">
+        <v>0.9315824213932036</v>
+      </c>
+      <c r="H23">
+        <v>17589.58577208424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>16000</v>
+      </c>
+      <c r="D24">
+        <v>19145.83333333333</v>
+      </c>
+      <c r="E24">
+        <v>18889.65272500844</v>
+      </c>
+      <c r="F24">
+        <v>0.8470245712255595</v>
+      </c>
+      <c r="H24">
+        <v>15765.05347445382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>18000</v>
+      </c>
+      <c r="D25">
+        <v>19270.83333333333</v>
+      </c>
+      <c r="E25">
+        <v>18994.06476908139</v>
+      </c>
+      <c r="F25">
+        <v>0.947664453019054</v>
+      </c>
+      <c r="H25">
+        <v>15557.57049923881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>15500</v>
+      </c>
+      <c r="D26">
+        <v>19500</v>
+      </c>
+      <c r="E26">
+        <v>19098.47681315434</v>
+      </c>
+      <c r="F26">
+        <v>0.811583046734081</v>
+      </c>
+      <c r="H26">
+        <v>15260.88991018547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>13500</v>
+      </c>
+      <c r="D27">
+        <v>19687.5</v>
+      </c>
+      <c r="E27">
+        <v>19202.88885722729</v>
+      </c>
+      <c r="F27">
+        <v>0.703019222804025</v>
+      </c>
+      <c r="H27">
+        <v>13854.19510652706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>13000</v>
+      </c>
+      <c r="D28">
+        <v>19770.83333333333</v>
+      </c>
+      <c r="E28">
+        <v>19307.30090130024</v>
+      </c>
+      <c r="F28">
+        <v>0.6733204224897393</v>
+      </c>
+      <c r="H28">
+        <v>12018.48496328339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>19500</v>
+      </c>
+      <c r="D29">
+        <v>19833.33333333333</v>
+      </c>
+      <c r="E29">
+        <v>19411.71294537318</v>
+      </c>
+      <c r="F29">
+        <v>1.004548133123299</v>
+      </c>
+      <c r="H29">
+        <v>18252.49938111684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>19000</v>
+      </c>
+      <c r="D30">
+        <v>19937.5</v>
+      </c>
+      <c r="E30">
+        <v>19516.12498944613</v>
+      </c>
+      <c r="F30">
+        <v>0.973553920682244</v>
+      </c>
+      <c r="H30">
+        <v>20210.44459698816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>27000</v>
+      </c>
+      <c r="D31">
+        <v>20041.66666666667</v>
+      </c>
+      <c r="E31">
+        <v>19620.53703351908</v>
+      </c>
+      <c r="F31">
+        <v>1.376109122491096</v>
+      </c>
+      <c r="H31">
+        <v>25696.22899059342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>29500</v>
+      </c>
+      <c r="D32">
+        <v>20104.16666666667</v>
+      </c>
+      <c r="E32">
+        <v>19724.94907759203</v>
+      </c>
+      <c r="F32">
+        <v>1.495567866054095</v>
+      </c>
+      <c r="H32">
+        <v>28467.86368034844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>27500</v>
+      </c>
+      <c r="D33">
+        <v>20187.5</v>
+      </c>
+      <c r="E33">
+        <v>19829.36112166498</v>
+      </c>
+      <c r="F33">
+        <v>1.386832376054431</v>
+      </c>
+      <c r="H33">
+        <v>27612.65948758755</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>21500</v>
+      </c>
+      <c r="D34">
+        <v>20270.83333333333</v>
+      </c>
+      <c r="E34">
+        <v>19933.77316573793</v>
+      </c>
+      <c r="F34">
+        <v>1.07857151886097</v>
+      </c>
+      <c r="H34">
+        <v>21498.32271259317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>18500</v>
+      </c>
+      <c r="D35">
+        <v>20291.66666666667</v>
+      </c>
+      <c r="E35">
+        <v>20038.18520981088</v>
+      </c>
+      <c r="F35">
+        <v>0.923237299500667</v>
+      </c>
+      <c r="H35">
+        <v>18762.78209320903</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>17500</v>
+      </c>
+      <c r="D36">
+        <v>20291.66666666667</v>
+      </c>
+      <c r="E36">
+        <v>20142.59725388382</v>
+      </c>
+      <c r="F36">
+        <v>0.8688055358216387</v>
+      </c>
+      <c r="H36">
+        <v>16810.74435007768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>19000</v>
+      </c>
+      <c r="D37">
+        <v>20312.5</v>
+      </c>
+      <c r="E37">
+        <v>20247.00929795677</v>
+      </c>
+      <c r="F37">
+        <v>0.9384101977923913</v>
+      </c>
+      <c r="H37">
+        <v>16583.82649428758</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>16000</v>
+      </c>
+      <c r="D38">
+        <v>20375</v>
+      </c>
+      <c r="E38">
+        <v>20351.42134202972</v>
+      </c>
+      <c r="F38">
+        <v>0.7861858752320571</v>
+      </c>
+      <c r="H38">
+        <v>16262.07176912652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>15000</v>
+      </c>
+      <c r="D39">
+        <v>20520.83333333333</v>
+      </c>
+      <c r="E39">
+        <v>20455.83338610267</v>
+      </c>
+      <c r="F39">
+        <v>0.7332871615091827</v>
+      </c>
+      <c r="H39">
+        <v>14758.14961513018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>13500</v>
+      </c>
+      <c r="D40">
+        <v>20645.83333333333</v>
+      </c>
+      <c r="E40">
+        <v>20560.24543017562</v>
+      </c>
+      <c r="F40">
+        <v>0.6566069479008495</v>
+      </c>
+      <c r="H40">
+        <v>12798.42282498123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>19500</v>
+      </c>
+      <c r="D41">
+        <v>20729.16666666667</v>
+      </c>
+      <c r="E41">
+        <v>20664.65747424856</v>
+      </c>
+      <c r="F41">
+        <v>0.9436401268349155</v>
+      </c>
+      <c r="H41">
+        <v>19430.62154386614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>19000</v>
+      </c>
+      <c r="D42">
+        <v>20833.33333333333</v>
+      </c>
+      <c r="E42">
+        <v>20769.06951832151</v>
+      </c>
+      <c r="F42">
+        <v>0.9148219174305848</v>
+      </c>
+      <c r="H42">
+        <v>21507.96477569316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>27500</v>
+      </c>
+      <c r="D43">
+        <v>20875</v>
+      </c>
+      <c r="E43">
+        <v>20873.48156239446</v>
+      </c>
+      <c r="F43">
+        <v>1.317461100957103</v>
+      </c>
+      <c r="H43">
+        <v>27337.16009617379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>30500</v>
+      </c>
+      <c r="D44">
+        <v>20895.83333333333</v>
+      </c>
+      <c r="E44">
+        <v>20977.89360646741</v>
+      </c>
+      <c r="F44">
+        <v>1.453911463760926</v>
+      </c>
+      <c r="H44">
+        <v>30276.16513181242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>30000</v>
+      </c>
+      <c r="D45">
+        <v>20937.5</v>
+      </c>
+      <c r="E45">
+        <v>21082.30565054036</v>
+      </c>
+      <c r="F45">
+        <v>1.422994263401692</v>
+      </c>
+      <c r="H45">
+        <v>29357.40206504114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>22000</v>
+      </c>
+      <c r="D46">
+        <v>21000</v>
+      </c>
+      <c r="E46">
+        <v>21186.7176946133</v>
+      </c>
+      <c r="F46">
+        <v>1.038386422904642</v>
+      </c>
+      <c r="H46">
+        <v>22849.60756964365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>20000</v>
+      </c>
+      <c r="D47">
+        <v>21062.5</v>
+      </c>
+      <c r="E47">
+        <v>21291.12973868625</v>
+      </c>
+      <c r="F47">
+        <v>0.9393583264705652</v>
+      </c>
+      <c r="H47">
+        <v>19935.97841433381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>18500</v>
+      </c>
+      <c r="D48">
+        <v>21145.83333333333</v>
+      </c>
+      <c r="E48">
+        <v>21395.5417827592</v>
+      </c>
+      <c r="F48">
+        <v>0.864666115391737</v>
+      </c>
+      <c r="H48">
+        <v>17856.43522570154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>19000</v>
+      </c>
+      <c r="D49">
+        <v>21250</v>
+      </c>
+      <c r="E49">
+        <v>21499.95382683215</v>
+      </c>
+      <c r="F49">
+        <v>0.8837228281061615</v>
+      </c>
+      <c r="H49">
+        <v>17610.08248933634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>16500</v>
+      </c>
+      <c r="D50">
+        <v>21354.16666666667</v>
+      </c>
+      <c r="E50">
+        <v>21604.3658709051</v>
+      </c>
+      <c r="F50">
+        <v>0.7637345200777579</v>
+      </c>
+      <c r="H50">
+        <v>17263.25362806757</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>15500</v>
+      </c>
+      <c r="D51">
+        <v>21458.33333333333</v>
+      </c>
+      <c r="E51">
+        <v>21708.77791497805</v>
+      </c>
+      <c r="F51">
+        <v>0.713996893823568</v>
+      </c>
+      <c r="H51">
+        <v>15662.10412373329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>14500</v>
+      </c>
+      <c r="D52">
+        <v>21604.16666666667</v>
+      </c>
+      <c r="E52">
+        <v>21813.189959051</v>
+      </c>
+      <c r="F52">
+        <v>0.6647354205056781</v>
+      </c>
+      <c r="H52">
+        <v>13578.36068667908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>20000</v>
+      </c>
+      <c r="D53">
+        <v>21708.33333333333</v>
+      </c>
+      <c r="E53">
+        <v>21917.60200312395</v>
+      </c>
+      <c r="F53">
+        <v>0.9125085854350934</v>
+      </c>
+      <c r="H53">
+        <v>20608.74370661544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>20500</v>
+      </c>
+      <c r="D54">
+        <v>21729.16666666667</v>
+      </c>
+      <c r="E54">
+        <v>22022.01404719689</v>
+      </c>
+      <c r="F54">
+        <v>0.9308867007379543</v>
+      </c>
+      <c r="H54">
+        <v>22805.48495439816</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>28500</v>
+      </c>
+      <c r="D55">
+        <v>21770.83333333333</v>
+      </c>
+      <c r="E55">
+        <v>22126.42609126984</v>
+      </c>
+      <c r="F55">
+        <v>1.28805257037172</v>
+      </c>
+      <c r="H55">
+        <v>28978.09120175415</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>32000</v>
+      </c>
+      <c r="E56">
+        <v>22230.83813534279</v>
+      </c>
+      <c r="F56">
+        <v>1.439441905212116</v>
+      </c>
+      <c r="H56">
+        <v>32084.4665832764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>31000</v>
+      </c>
+      <c r="E57">
+        <v>22335.25017941574</v>
+      </c>
+      <c r="F57">
+        <v>1.387940576039293</v>
+      </c>
+      <c r="H57">
+        <v>31102.14464249472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>24500</v>
+      </c>
+      <c r="E58">
+        <v>22439.66222348869</v>
+      </c>
+      <c r="F58">
+        <v>1.091816791001188</v>
+      </c>
+      <c r="H58">
+        <v>24200.89242669413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>20000</v>
+      </c>
+      <c r="E59">
+        <v>22544.07426756163</v>
+      </c>
+      <c r="F59">
+        <v>0.8871510873603593</v>
+      </c>
+      <c r="H59">
+        <v>21109.1747354586</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>19000</v>
+      </c>
+      <c r="E60">
+        <v>22648.48631163458</v>
+      </c>
+      <c r="F60">
+        <v>0.8389081609502377</v>
+      </c>
+      <c r="H60">
+        <v>18902.1261013254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>19500</v>
+      </c>
+      <c r="E61">
+        <v>22752.89835570753</v>
+      </c>
+      <c r="F61">
+        <v>0.8570336708381794</v>
+      </c>
+      <c r="H61">
+        <v>18636.3384843851</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +1652,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -732,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -740,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -748,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>23000</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -756,10 +1722,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>34000</v>
-      </c>
-      <c r="C5">
-        <v>19500</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -767,34 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10000</v>
-      </c>
-      <c r="C6">
-        <v>20000</v>
-      </c>
-      <c r="D6">
-        <v>19500</v>
-      </c>
-      <c r="E6">
-        <v>9500</v>
-      </c>
-      <c r="F6">
-        <v>9500</v>
-      </c>
-      <c r="G6">
-        <v>90250000</v>
-      </c>
-      <c r="H6">
-        <v>9500</v>
-      </c>
-      <c r="I6">
-        <v>95</v>
-      </c>
-      <c r="J6">
-        <v>95</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -802,34 +1738,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18000</v>
-      </c>
-      <c r="C7">
-        <v>21250</v>
-      </c>
-      <c r="D7">
-        <v>20000</v>
-      </c>
-      <c r="E7">
-        <v>2000</v>
-      </c>
-      <c r="F7">
-        <v>2000</v>
-      </c>
-      <c r="G7">
-        <v>47125000</v>
-      </c>
-      <c r="H7">
-        <v>5750</v>
-      </c>
-      <c r="I7">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="J7">
-        <v>53.05555555555556</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -837,34 +1746,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23000</v>
-      </c>
-      <c r="C8">
-        <v>21250</v>
-      </c>
-      <c r="D8">
-        <v>21250</v>
-      </c>
-      <c r="E8">
-        <v>-1750</v>
-      </c>
-      <c r="F8">
-        <v>1750</v>
-      </c>
-      <c r="G8">
-        <v>32437500</v>
-      </c>
-      <c r="H8">
-        <v>4416.666666666667</v>
-      </c>
-      <c r="I8">
-        <v>7.608695652173914</v>
-      </c>
-      <c r="J8">
-        <v>37.90660225442834</v>
-      </c>
-      <c r="K8">
-        <v>2.20754716981132</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -872,34 +1754,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38000</v>
-      </c>
-      <c r="C9">
-        <v>22250</v>
-      </c>
-      <c r="D9">
-        <v>21250</v>
-      </c>
-      <c r="E9">
-        <v>-16750</v>
-      </c>
-      <c r="F9">
-        <v>16750</v>
-      </c>
-      <c r="G9">
-        <v>94468750</v>
-      </c>
-      <c r="H9">
-        <v>7500</v>
-      </c>
-      <c r="I9">
-        <v>44.07894736842105</v>
-      </c>
-      <c r="J9">
-        <v>39.44968853292652</v>
-      </c>
-      <c r="K9">
-        <v>-0.9333333333333333</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -907,34 +1762,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>12000</v>
-      </c>
-      <c r="C10">
-        <v>22750</v>
-      </c>
-      <c r="D10">
-        <v>22250</v>
-      </c>
-      <c r="E10">
-        <v>10250</v>
-      </c>
-      <c r="F10">
-        <v>10250</v>
-      </c>
-      <c r="G10">
-        <v>96587500</v>
-      </c>
-      <c r="H10">
-        <v>8050</v>
-      </c>
-      <c r="I10">
-        <v>85.41666666666666</v>
-      </c>
-      <c r="J10">
-        <v>48.64308415967454</v>
-      </c>
-      <c r="K10">
-        <v>0.4037267080745341</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -942,34 +1770,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13000</v>
-      </c>
-      <c r="C11">
-        <v>21500</v>
-      </c>
-      <c r="D11">
-        <v>22750</v>
-      </c>
-      <c r="E11">
-        <v>9750</v>
-      </c>
-      <c r="F11">
-        <v>9750</v>
-      </c>
-      <c r="G11">
-        <v>96333333.33333333</v>
-      </c>
-      <c r="H11">
-        <v>8333.333333333334</v>
-      </c>
-      <c r="I11">
-        <v>75</v>
-      </c>
-      <c r="J11">
-        <v>53.03590346639546</v>
-      </c>
-      <c r="K11">
-        <v>1.56</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -977,34 +1778,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>32000</v>
-      </c>
-      <c r="C12">
-        <v>23750</v>
-      </c>
-      <c r="D12">
-        <v>21500</v>
-      </c>
-      <c r="E12">
-        <v>-10500</v>
-      </c>
-      <c r="F12">
-        <v>10500</v>
-      </c>
-      <c r="G12">
-        <v>98321428.57142857</v>
-      </c>
-      <c r="H12">
-        <v>8642.857142857143</v>
-      </c>
-      <c r="I12">
-        <v>32.8125</v>
-      </c>
-      <c r="J12">
-        <v>50.14684582833896</v>
-      </c>
-      <c r="K12">
-        <v>0.2892561983471074</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1012,34 +1786,1690 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>41000</v>
+        <v>12250</v>
       </c>
       <c r="C13">
+        <v>16750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>14000</v>
+      </c>
+      <c r="C14">
+        <v>16791.66666666667</v>
+      </c>
+      <c r="D14">
+        <v>16750</v>
+      </c>
+      <c r="E14">
+        <v>2750</v>
+      </c>
+      <c r="F14">
+        <v>2750</v>
+      </c>
+      <c r="G14">
+        <v>7562500</v>
+      </c>
+      <c r="H14">
+        <v>2750</v>
+      </c>
+      <c r="I14">
+        <v>19.64285714285714</v>
+      </c>
+      <c r="J14">
+        <v>19.64285714285714</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>13000</v>
+      </c>
+      <c r="C15">
+        <v>16875</v>
+      </c>
+      <c r="D15">
+        <v>16791.66666666667</v>
+      </c>
+      <c r="E15">
+        <v>3791.666666666668</v>
+      </c>
+      <c r="F15">
+        <v>3791.666666666668</v>
+      </c>
+      <c r="G15">
+        <v>10969618.05555556</v>
+      </c>
+      <c r="H15">
+        <v>3270.833333333334</v>
+      </c>
+      <c r="I15">
+        <v>29.16666666666667</v>
+      </c>
+      <c r="J15">
+        <v>24.40476190476191</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>12000</v>
+      </c>
+      <c r="C16">
+        <v>17062.5</v>
+      </c>
+      <c r="D16">
+        <v>16875</v>
+      </c>
+      <c r="E16">
+        <v>4875</v>
+      </c>
+      <c r="F16">
+        <v>4875</v>
+      </c>
+      <c r="G16">
+        <v>15234953.70370371</v>
+      </c>
+      <c r="H16">
+        <v>3805.555555555556</v>
+      </c>
+      <c r="I16">
+        <v>40.625</v>
+      </c>
+      <c r="J16">
+        <v>29.81150793650794</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>17500</v>
+      </c>
+      <c r="C17">
+        <v>17229.16666666667</v>
+      </c>
+      <c r="D17">
+        <v>17062.5</v>
+      </c>
+      <c r="E17">
+        <v>-437.5</v>
+      </c>
+      <c r="F17">
+        <v>437.5</v>
+      </c>
+      <c r="G17">
+        <v>11474066.84027778</v>
+      </c>
+      <c r="H17">
+        <v>2963.541666666667</v>
+      </c>
+      <c r="I17">
+        <v>2.5</v>
+      </c>
+      <c r="J17">
+        <v>22.98363095238096</v>
+      </c>
+      <c r="K17">
+        <v>3.704745166959578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>18500</v>
+      </c>
+      <c r="C18">
+        <v>17270.83333333333</v>
+      </c>
+      <c r="D18">
+        <v>17229.16666666667</v>
+      </c>
+      <c r="E18">
+        <v>-1270.833333333332</v>
+      </c>
+      <c r="F18">
+        <v>1270.833333333332</v>
+      </c>
+      <c r="G18">
+        <v>9502256.944444444</v>
+      </c>
+      <c r="H18">
+        <v>2625</v>
+      </c>
+      <c r="I18">
+        <v>6.869369369369363</v>
+      </c>
+      <c r="J18">
+        <v>19.76077863577864</v>
+      </c>
+      <c r="K18">
+        <v>3.698412698412699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>24500</v>
       </c>
-      <c r="D13">
-        <v>23750</v>
-      </c>
-      <c r="E13">
-        <v>-17250</v>
-      </c>
-      <c r="F13">
-        <v>17250</v>
-      </c>
-      <c r="G13">
-        <v>123226562.5</v>
-      </c>
-      <c r="H13">
-        <v>9718.75</v>
-      </c>
-      <c r="I13">
-        <v>42.07317073170731</v>
-      </c>
-      <c r="J13">
-        <v>49.13763644126</v>
-      </c>
-      <c r="K13">
-        <v>-1.517684887459807</v>
+      <c r="C19">
+        <v>17479.16666666667</v>
+      </c>
+      <c r="D19">
+        <v>17270.83333333333</v>
+      </c>
+      <c r="E19">
+        <v>-7229.166666666668</v>
+      </c>
+      <c r="F19">
+        <v>7229.166666666668</v>
+      </c>
+      <c r="G19">
+        <v>16628689.23611111</v>
+      </c>
+      <c r="H19">
+        <v>3392.361111111111</v>
+      </c>
+      <c r="I19">
+        <v>29.50680272108844</v>
+      </c>
+      <c r="J19">
+        <v>21.38511598333027</v>
+      </c>
+      <c r="K19">
+        <v>0.7308085977482092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>26500</v>
+      </c>
+      <c r="C20">
+        <v>17604.16666666667</v>
+      </c>
+      <c r="D20">
+        <v>17479.16666666667</v>
+      </c>
+      <c r="E20">
+        <v>-9020.833333333332</v>
+      </c>
+      <c r="F20">
+        <v>9020.833333333332</v>
+      </c>
+      <c r="G20">
+        <v>25878224.20634921</v>
+      </c>
+      <c r="H20">
+        <v>4196.428571428572</v>
+      </c>
+      <c r="I20">
+        <v>34.04088050314465</v>
+      </c>
+      <c r="J20">
+        <v>23.19308234330375</v>
+      </c>
+      <c r="K20">
+        <v>-1.55886524822695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>26000</v>
+      </c>
+      <c r="C21">
+        <v>17770.83333333333</v>
+      </c>
+      <c r="D21">
+        <v>17604.16666666667</v>
+      </c>
+      <c r="E21">
+        <v>-8395.833333333332</v>
+      </c>
+      <c r="F21">
+        <v>8395.833333333332</v>
+      </c>
+      <c r="G21">
+        <v>31454698.35069444</v>
+      </c>
+      <c r="H21">
+        <v>4721.354166666666</v>
+      </c>
+      <c r="I21">
+        <v>32.29166666666666</v>
+      </c>
+      <c r="J21">
+        <v>24.33040538372412</v>
+      </c>
+      <c r="K21">
+        <v>-3.163816878102592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21000</v>
+      </c>
+      <c r="C22">
+        <v>18020.83333333333</v>
+      </c>
+      <c r="D22">
+        <v>17770.83333333333</v>
+      </c>
+      <c r="E22">
+        <v>-3229.166666666668</v>
+      </c>
+      <c r="F22">
+        <v>3229.166666666668</v>
+      </c>
+      <c r="G22">
+        <v>29118344.9074074</v>
+      </c>
+      <c r="H22">
+        <v>4555.555555555556</v>
+      </c>
+      <c r="I22">
+        <v>15.37698412698413</v>
+      </c>
+      <c r="J22">
+        <v>23.3355807996419</v>
+      </c>
+      <c r="K22">
+        <v>-3.98780487804878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>17500</v>
+      </c>
+      <c r="C23">
+        <v>18104.16666666667</v>
+      </c>
+      <c r="D23">
+        <v>18020.83333333333</v>
+      </c>
+      <c r="E23">
+        <v>520.8333333333321</v>
+      </c>
+      <c r="F23">
+        <v>520.8333333333321</v>
+      </c>
+      <c r="G23">
+        <v>26233637.15277777</v>
+      </c>
+      <c r="H23">
+        <v>4152.083333333333</v>
+      </c>
+      <c r="I23">
+        <v>2.97619047619047</v>
+      </c>
+      <c r="J23">
+        <v>21.29964176729676</v>
+      </c>
+      <c r="K23">
+        <v>-4.249874560963372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>16000</v>
+      </c>
+      <c r="C24">
+        <v>18229.16666666667</v>
+      </c>
+      <c r="D24">
+        <v>18104.16666666667</v>
+      </c>
+      <c r="E24">
+        <v>2104.166666666668</v>
+      </c>
+      <c r="F24">
+        <v>2104.166666666668</v>
+      </c>
+      <c r="G24">
+        <v>24251262.62626262</v>
+      </c>
+      <c r="H24">
+        <v>3965.909090909091</v>
+      </c>
+      <c r="I24">
+        <v>13.15104166666667</v>
+      </c>
+      <c r="J24">
+        <v>20.55885993996675</v>
+      </c>
+      <c r="K24">
+        <v>-3.918815663801337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>18000</v>
+      </c>
+      <c r="C25">
+        <v>18708.33333333333</v>
+      </c>
+      <c r="D25">
+        <v>18229.16666666667</v>
+      </c>
+      <c r="E25">
+        <v>229.1666666666679</v>
+      </c>
+      <c r="F25">
+        <v>229.1666666666679</v>
+      </c>
+      <c r="G25">
+        <v>22234700.52083333</v>
+      </c>
+      <c r="H25">
+        <v>3654.513888888889</v>
+      </c>
+      <c r="I25">
+        <v>1.273148148148155</v>
+      </c>
+      <c r="J25">
+        <v>18.95171729064853</v>
+      </c>
+      <c r="K25">
+        <v>-4.19002375296912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>15500</v>
+      </c>
+      <c r="C26">
+        <v>18833.33333333333</v>
+      </c>
+      <c r="D26">
+        <v>18708.33333333333</v>
+      </c>
+      <c r="E26">
+        <v>3208.333333333332</v>
+      </c>
+      <c r="F26">
+        <v>3208.333333333332</v>
+      </c>
+      <c r="G26">
+        <v>21316139.1559829</v>
+      </c>
+      <c r="H26">
+        <v>3620.192307692308</v>
+      </c>
+      <c r="I26">
+        <v>20.69892473118279</v>
+      </c>
+      <c r="J26">
+        <v>19.08611786299732</v>
+      </c>
+      <c r="K26">
+        <v>-3.343514829570606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>13500</v>
+      </c>
+      <c r="C27">
+        <v>18875</v>
+      </c>
+      <c r="D27">
+        <v>18833.33333333333</v>
+      </c>
+      <c r="E27">
+        <v>5333.333333333332</v>
+      </c>
+      <c r="F27">
+        <v>5333.333333333332</v>
+      </c>
+      <c r="G27">
+        <v>21825303.81944444</v>
+      </c>
+      <c r="H27">
+        <v>3742.559523809523</v>
+      </c>
+      <c r="I27">
+        <v>39.50617283950616</v>
+      </c>
+      <c r="J27">
+        <v>20.54469321846224</v>
+      </c>
+      <c r="K27">
+        <v>-1.809145129224652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>13000</v>
+      </c>
+      <c r="C28">
+        <v>18958.33333333333</v>
+      </c>
+      <c r="D28">
+        <v>18875</v>
+      </c>
+      <c r="E28">
+        <v>5875</v>
+      </c>
+      <c r="F28">
+        <v>5875</v>
+      </c>
+      <c r="G28">
+        <v>22671325.23148148</v>
+      </c>
+      <c r="H28">
+        <v>3884.722222222222</v>
+      </c>
+      <c r="I28">
+        <v>45.19230769230769</v>
+      </c>
+      <c r="J28">
+        <v>22.1878675167186</v>
+      </c>
+      <c r="K28">
+        <v>-0.2306042188058632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>19500</v>
+      </c>
+      <c r="C29">
+        <v>19125</v>
+      </c>
+      <c r="D29">
+        <v>18958.33333333333</v>
+      </c>
+      <c r="E29">
+        <v>-541.6666666666679</v>
+      </c>
+      <c r="F29">
+        <v>541.6666666666679</v>
+      </c>
+      <c r="G29">
+        <v>21272705.078125</v>
+      </c>
+      <c r="H29">
+        <v>3675.78125</v>
+      </c>
+      <c r="I29">
+        <v>2.777777777777784</v>
+      </c>
+      <c r="J29">
+        <v>20.9747369080348</v>
+      </c>
+      <c r="K29">
+        <v>-0.3910733262486716</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>19000</v>
+      </c>
+      <c r="C30">
+        <v>19166.66666666667</v>
+      </c>
+      <c r="D30">
+        <v>19125</v>
+      </c>
+      <c r="E30">
+        <v>125</v>
+      </c>
+      <c r="F30">
+        <v>125</v>
+      </c>
+      <c r="G30">
+        <v>20022288.60294118</v>
+      </c>
+      <c r="H30">
+        <v>3466.911764705882</v>
+      </c>
+      <c r="I30">
+        <v>0.6578947368421052</v>
+      </c>
+      <c r="J30">
+        <v>19.77962854502346</v>
+      </c>
+      <c r="K30">
+        <v>-0.3785790031813361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>27000</v>
+      </c>
+      <c r="C31">
+        <v>19375</v>
+      </c>
+      <c r="D31">
+        <v>19166.66666666667</v>
+      </c>
+      <c r="E31">
+        <v>-7833.333333333332</v>
+      </c>
+      <c r="F31">
+        <v>7833.333333333332</v>
+      </c>
+      <c r="G31">
+        <v>22318889.85339506</v>
+      </c>
+      <c r="H31">
+        <v>3709.49074074074</v>
+      </c>
+      <c r="I31">
+        <v>29.01234567901234</v>
+      </c>
+      <c r="J31">
+        <v>20.29255727468951</v>
+      </c>
+      <c r="K31">
+        <v>-2.465522620904836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>29500</v>
+      </c>
+      <c r="C32">
+        <v>19625</v>
+      </c>
+      <c r="D32">
+        <v>19375</v>
+      </c>
+      <c r="E32">
+        <v>-10125</v>
+      </c>
+      <c r="F32">
+        <v>10125</v>
+      </c>
+      <c r="G32">
+        <v>26539770.65058479</v>
+      </c>
+      <c r="H32">
+        <v>4047.149122807017</v>
+      </c>
+      <c r="I32">
+        <v>34.32203389830508</v>
+      </c>
+      <c r="J32">
+        <v>21.0309507811956</v>
+      </c>
+      <c r="K32">
+        <v>-4.761582227038743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>27500</v>
+      </c>
+      <c r="C33">
+        <v>19750</v>
+      </c>
+      <c r="D33">
+        <v>19625</v>
+      </c>
+      <c r="E33">
+        <v>-7875</v>
+      </c>
+      <c r="F33">
+        <v>7875</v>
+      </c>
+      <c r="G33">
+        <v>28313563.36805556</v>
+      </c>
+      <c r="H33">
+        <v>4238.541666666666</v>
+      </c>
+      <c r="I33">
+        <v>28.63636363636364</v>
+      </c>
+      <c r="J33">
+        <v>21.411221423954</v>
+      </c>
+      <c r="K33">
+        <v>-6.404521995576309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>21500</v>
+      </c>
+      <c r="C34">
+        <v>19791.66666666667</v>
+      </c>
+      <c r="D34">
+        <v>19750</v>
+      </c>
+      <c r="E34">
+        <v>-1750</v>
+      </c>
+      <c r="F34">
+        <v>1750</v>
+      </c>
+      <c r="G34">
+        <v>27111131.77910053</v>
+      </c>
+      <c r="H34">
+        <v>4120.039682539682</v>
+      </c>
+      <c r="I34">
+        <v>8.13953488372093</v>
+      </c>
+      <c r="J34">
+        <v>20.77923635060957</v>
+      </c>
+      <c r="K34">
+        <v>-7.013484228268722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>18500</v>
+      </c>
+      <c r="C35">
+        <v>19875</v>
+      </c>
+      <c r="D35">
+        <v>19791.66666666667</v>
+      </c>
+      <c r="E35">
+        <v>1291.666666666668</v>
+      </c>
+      <c r="F35">
+        <v>1291.666666666668</v>
+      </c>
+      <c r="G35">
+        <v>25954644.09722222</v>
+      </c>
+      <c r="H35">
+        <v>3991.477272727273</v>
+      </c>
+      <c r="I35">
+        <v>6.981981981981988</v>
+      </c>
+      <c r="J35">
+        <v>20.15208842476286</v>
+      </c>
+      <c r="K35">
+        <v>-6.915776986951364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>17500</v>
+      </c>
+      <c r="C36">
+        <v>20000</v>
+      </c>
+      <c r="D36">
+        <v>19875</v>
+      </c>
+      <c r="E36">
+        <v>2375</v>
+      </c>
+      <c r="F36">
+        <v>2375</v>
+      </c>
+      <c r="G36">
+        <v>25071425.87560387</v>
+      </c>
+      <c r="H36">
+        <v>3921.195652173913</v>
+      </c>
+      <c r="I36">
+        <v>13.57142857142857</v>
+      </c>
+      <c r="J36">
+        <v>19.86597277896572</v>
+      </c>
+      <c r="K36">
+        <v>-6.434049434049434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>19000</v>
+      </c>
+      <c r="C37">
+        <v>20083.33333333333</v>
+      </c>
+      <c r="D37">
+        <v>20000</v>
+      </c>
+      <c r="E37">
+        <v>1000</v>
+      </c>
+      <c r="F37">
+        <v>1000</v>
+      </c>
+      <c r="G37">
+        <v>24068449.7974537</v>
+      </c>
+      <c r="H37">
+        <v>3799.479166666667</v>
+      </c>
+      <c r="I37">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="J37">
+        <v>19.25752215878951</v>
+      </c>
+      <c r="K37">
+        <v>-6.376970527758738</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>16000</v>
+      </c>
+      <c r="C38">
+        <v>20125</v>
+      </c>
+      <c r="D38">
+        <v>20083.33333333333</v>
+      </c>
+      <c r="E38">
+        <v>4083.333333333332</v>
+      </c>
+      <c r="F38">
+        <v>4083.333333333332</v>
+      </c>
+      <c r="G38">
+        <v>23772656.25</v>
+      </c>
+      <c r="H38">
+        <v>3810.833333333333</v>
+      </c>
+      <c r="I38">
+        <v>25.52083333333333</v>
+      </c>
+      <c r="J38">
+        <v>19.50805460577126</v>
+      </c>
+      <c r="K38">
+        <v>-5.286464027990379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>15000</v>
+      </c>
+      <c r="C39">
+        <v>20250</v>
+      </c>
+      <c r="D39">
+        <v>20125</v>
+      </c>
+      <c r="E39">
+        <v>5125</v>
+      </c>
+      <c r="F39">
+        <v>5125</v>
+      </c>
+      <c r="G39">
+        <v>23868539.66346153</v>
+      </c>
+      <c r="H39">
+        <v>3861.378205128205</v>
+      </c>
+      <c r="I39">
+        <v>34.16666666666666</v>
+      </c>
+      <c r="J39">
+        <v>20.07184737734417</v>
+      </c>
+      <c r="K39">
+        <v>-3.890018676073874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>13500</v>
+      </c>
+      <c r="C40">
+        <v>20291.66666666667</v>
+      </c>
+      <c r="D40">
+        <v>20250</v>
+      </c>
+      <c r="E40">
+        <v>6750</v>
+      </c>
+      <c r="F40">
+        <v>6750</v>
+      </c>
+      <c r="G40">
+        <v>24672019.67592592</v>
+      </c>
+      <c r="H40">
+        <v>3968.364197530864</v>
+      </c>
+      <c r="I40">
+        <v>50</v>
+      </c>
+      <c r="J40">
+        <v>21.18029747447957</v>
+      </c>
+      <c r="K40">
+        <v>-2.084192105774839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>19500</v>
+      </c>
+      <c r="C41">
+        <v>20291.66666666667</v>
+      </c>
+      <c r="D41">
+        <v>20291.66666666667</v>
+      </c>
+      <c r="E41">
+        <v>791.6666666666679</v>
+      </c>
+      <c r="F41">
+        <v>791.6666666666679</v>
+      </c>
+      <c r="G41">
+        <v>23813259.54861111</v>
+      </c>
+      <c r="H41">
+        <v>3854.910714285714</v>
+      </c>
+      <c r="I41">
+        <v>4.059829059829066</v>
+      </c>
+      <c r="J41">
+        <v>20.56885217395634</v>
+      </c>
+      <c r="K41">
+        <v>-1.940165991121405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>19000</v>
+      </c>
+      <c r="C42">
+        <v>20291.66666666667</v>
+      </c>
+      <c r="D42">
+        <v>20291.66666666667</v>
+      </c>
+      <c r="E42">
+        <v>1291.666666666668</v>
+      </c>
+      <c r="F42">
+        <v>1291.666666666668</v>
+      </c>
+      <c r="G42">
+        <v>23049643.79789272</v>
+      </c>
+      <c r="H42">
+        <v>3766.522988505747</v>
+      </c>
+      <c r="I42">
+        <v>6.798245614035094</v>
+      </c>
+      <c r="J42">
+        <v>20.09400367189009</v>
+      </c>
+      <c r="K42">
+        <v>-1.642761777608238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>27500</v>
+      </c>
+      <c r="C43">
+        <v>20333.33333333333</v>
+      </c>
+      <c r="D43">
+        <v>20291.66666666667</v>
+      </c>
+      <c r="E43">
+        <v>-7208.333333333332</v>
+      </c>
+      <c r="F43">
+        <v>7208.333333333332</v>
+      </c>
+      <c r="G43">
+        <v>24013324.65277778</v>
+      </c>
+      <c r="H43">
+        <v>3881.25</v>
+      </c>
+      <c r="I43">
+        <v>26.21212121212121</v>
+      </c>
+      <c r="J43">
+        <v>20.29794092323112</v>
+      </c>
+      <c r="K43">
+        <v>-3.451422436929682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>30500</v>
+      </c>
+      <c r="C44">
+        <v>20416.66666666667</v>
+      </c>
+      <c r="D44">
+        <v>20333.33333333333</v>
+      </c>
+      <c r="E44">
+        <v>-10166.66666666667</v>
+      </c>
+      <c r="F44">
+        <v>10166.66666666667</v>
+      </c>
+      <c r="G44">
+        <v>26572930.66756272</v>
+      </c>
+      <c r="H44">
+        <v>4084.005376344086</v>
+      </c>
+      <c r="I44">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="J44">
+        <v>20.71843745258926</v>
+      </c>
+      <c r="K44">
+        <v>-5.769458614447918</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>30000</v>
+      </c>
+      <c r="C45">
+        <v>20625</v>
+      </c>
+      <c r="D45">
+        <v>20416.66666666667</v>
+      </c>
+      <c r="E45">
+        <v>-9583.333333333332</v>
+      </c>
+      <c r="F45">
+        <v>9583.333333333332</v>
+      </c>
+      <c r="G45">
+        <v>28612535.26475694</v>
+      </c>
+      <c r="H45">
+        <v>4255.859375</v>
+      </c>
+      <c r="I45">
+        <v>31.94444444444444</v>
+      </c>
+      <c r="J45">
+        <v>21.06925017108473</v>
+      </c>
+      <c r="K45">
+        <v>-7.788282086584059</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>22000</v>
+      </c>
+      <c r="C46">
+        <v>20666.66666666667</v>
+      </c>
+      <c r="D46">
+        <v>20625</v>
+      </c>
+      <c r="E46">
+        <v>-1375</v>
+      </c>
+      <c r="F46">
+        <v>1375</v>
+      </c>
+      <c r="G46">
+        <v>27802780.40824915</v>
+      </c>
+      <c r="H46">
+        <v>4168.560606060606</v>
+      </c>
+      <c r="I46">
+        <v>6.25</v>
+      </c>
+      <c r="J46">
+        <v>20.62018198408217</v>
+      </c>
+      <c r="K46">
+        <v>-8.281235801908222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>20000</v>
+      </c>
+      <c r="C47">
+        <v>20791.66666666667</v>
+      </c>
+      <c r="D47">
+        <v>20666.66666666667</v>
+      </c>
+      <c r="E47">
+        <v>666.6666666666679</v>
+      </c>
+      <c r="F47">
+        <v>666.6666666666679</v>
+      </c>
+      <c r="G47">
+        <v>26998123.46813725</v>
+      </c>
+      <c r="H47">
+        <v>4065.563725490196</v>
+      </c>
+      <c r="I47">
+        <v>3.33333333333334</v>
+      </c>
+      <c r="J47">
+        <v>20.11174525906014</v>
+      </c>
+      <c r="K47">
+        <v>-8.327053504144686</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>18500</v>
+      </c>
+      <c r="C48">
+        <v>20875</v>
+      </c>
+      <c r="D48">
+        <v>20791.66666666667</v>
+      </c>
+      <c r="E48">
+        <v>2291.666666666668</v>
+      </c>
+      <c r="F48">
+        <v>2291.666666666668</v>
+      </c>
+      <c r="G48">
+        <v>26376798.11507936</v>
+      </c>
+      <c r="H48">
+        <v>4014.880952380952</v>
+      </c>
+      <c r="I48">
+        <v>12.38738738738739</v>
+      </c>
+      <c r="J48">
+        <v>19.89104931986949</v>
+      </c>
+      <c r="K48">
+        <v>-7.861378799110451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>19000</v>
+      </c>
+      <c r="C49">
+        <v>20875</v>
+      </c>
+      <c r="D49">
+        <v>20875</v>
+      </c>
+      <c r="E49">
+        <v>1875</v>
+      </c>
+      <c r="F49">
+        <v>1875</v>
+      </c>
+      <c r="G49">
+        <v>25741765.52854938</v>
+      </c>
+      <c r="H49">
+        <v>3955.439814814814</v>
+      </c>
+      <c r="I49">
+        <v>9.868421052631579</v>
+      </c>
+      <c r="J49">
+        <v>19.61264297911288</v>
+      </c>
+      <c r="K49">
+        <v>-7.505486466715434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>16500</v>
+      </c>
+      <c r="C50">
+        <v>20916.66666666667</v>
+      </c>
+      <c r="D50">
+        <v>20875</v>
+      </c>
+      <c r="E50">
+        <v>4375</v>
+      </c>
+      <c r="F50">
+        <v>4375</v>
+      </c>
+      <c r="G50">
+        <v>25563356.32507507</v>
+      </c>
+      <c r="H50">
+        <v>3966.779279279279</v>
+      </c>
+      <c r="I50">
+        <v>26.51515151515152</v>
+      </c>
+      <c r="J50">
+        <v>19.79919726387068</v>
+      </c>
+      <c r="K50">
+        <v>-6.381121362668557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>15500</v>
+      </c>
+      <c r="C51">
+        <v>20958.33333333333</v>
+      </c>
+      <c r="D51">
+        <v>20916.66666666667</v>
+      </c>
+      <c r="E51">
+        <v>5416.666666666668</v>
+      </c>
+      <c r="F51">
+        <v>5416.666666666668</v>
+      </c>
+      <c r="G51">
+        <v>25662748.99488304</v>
+      </c>
+      <c r="H51">
+        <v>4004.934210526315</v>
+      </c>
+      <c r="I51">
+        <v>34.94623655913979</v>
+      </c>
+      <c r="J51">
+        <v>20.19780356111461</v>
+      </c>
+      <c r="K51">
+        <v>-4.967830253251196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>14500</v>
+      </c>
+      <c r="C52">
+        <v>21041.66666666667</v>
+      </c>
+      <c r="D52">
+        <v>20958.33333333333</v>
+      </c>
+      <c r="E52">
+        <v>6458.333333333332</v>
+      </c>
+      <c r="F52">
+        <v>6458.333333333332</v>
+      </c>
+      <c r="G52">
+        <v>26074218.75</v>
+      </c>
+      <c r="H52">
+        <v>4067.84188034188</v>
+      </c>
+      <c r="I52">
+        <v>44.54022988505746</v>
+      </c>
+      <c r="J52">
+        <v>20.8219683386516</v>
+      </c>
+      <c r="K52">
+        <v>-3.30334865397242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>20000</v>
+      </c>
+      <c r="C53">
+        <v>21083.33333333333</v>
+      </c>
+      <c r="D53">
+        <v>21041.66666666667</v>
+      </c>
+      <c r="E53">
+        <v>1041.666666666668</v>
+      </c>
+      <c r="F53">
+        <v>1041.666666666668</v>
+      </c>
+      <c r="G53">
+        <v>25449490.01736111</v>
+      </c>
+      <c r="H53">
+        <v>3992.1875</v>
+      </c>
+      <c r="I53">
+        <v>5.208333333333339</v>
+      </c>
+      <c r="J53">
+        <v>20.43162746351864</v>
+      </c>
+      <c r="K53">
+        <v>-3.105022831050226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>20500</v>
+      </c>
+      <c r="C54">
+        <v>21208.33333333333</v>
+      </c>
+      <c r="D54">
+        <v>21083.33333333333</v>
+      </c>
+      <c r="E54">
+        <v>583.3333333333321</v>
+      </c>
+      <c r="F54">
+        <v>583.3333333333321</v>
+      </c>
+      <c r="G54">
+        <v>24837070.20663957</v>
+      </c>
+      <c r="H54">
+        <v>3909.044715447155</v>
+      </c>
+      <c r="I54">
+        <v>2.845528455284547</v>
+      </c>
+      <c r="J54">
+        <v>20.00269821941538</v>
+      </c>
+      <c r="K54">
+        <v>-3.021838034576886</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>28500</v>
+      </c>
+      <c r="C55">
+        <v>21291.66666666667</v>
+      </c>
+      <c r="D55">
+        <v>21208.33333333333</v>
+      </c>
+      <c r="E55">
+        <v>-7291.666666666668</v>
+      </c>
+      <c r="F55">
+        <v>7291.666666666668</v>
+      </c>
+      <c r="G55">
+        <v>25511625.74404762</v>
+      </c>
+      <c r="H55">
+        <v>3989.583333333333</v>
+      </c>
+      <c r="I55">
+        <v>25.58479532163743</v>
+      </c>
+      <c r="J55">
+        <v>20.13560529327781</v>
+      </c>
+      <c r="K55">
+        <v>-4.788511749347257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>32000</v>
+      </c>
+      <c r="C56">
+        <v>21416.66666666667</v>
+      </c>
+      <c r="D56">
+        <v>21291.66666666667</v>
+      </c>
+      <c r="E56">
+        <v>-10708.33333333333</v>
+      </c>
+      <c r="F56">
+        <v>10708.33333333333</v>
+      </c>
+      <c r="G56">
+        <v>27585039.16343669</v>
+      </c>
+      <c r="H56">
+        <v>4145.833333333334</v>
+      </c>
+      <c r="I56">
+        <v>33.46354166666666</v>
+      </c>
+      <c r="J56">
+        <v>20.44555730196127</v>
+      </c>
+      <c r="K56">
+        <v>-7.190954773869344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>31000</v>
+      </c>
+      <c r="C57">
+        <v>21500</v>
+      </c>
+      <c r="D57">
+        <v>21416.66666666667</v>
+      </c>
+      <c r="E57">
+        <v>-9583.333333333332</v>
+      </c>
+      <c r="F57">
+        <v>9583.333333333332</v>
+      </c>
+      <c r="G57">
+        <v>29045385.4955808</v>
+      </c>
+      <c r="H57">
+        <v>4269.412878787879</v>
+      </c>
+      <c r="I57">
+        <v>30.91397849462365</v>
+      </c>
+      <c r="J57">
+        <v>20.68347596543087</v>
+      </c>
+      <c r="K57">
+        <v>-9.22745924365088</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>24500</v>
+      </c>
+      <c r="C58">
+        <v>21708.33333333333</v>
+      </c>
+      <c r="D58">
+        <v>21500</v>
+      </c>
+      <c r="E58">
+        <v>-3000</v>
+      </c>
+      <c r="F58">
+        <v>3000</v>
+      </c>
+      <c r="G58">
+        <v>28599932.4845679</v>
+      </c>
+      <c r="H58">
+        <v>4241.203703703704</v>
+      </c>
+      <c r="I58">
+        <v>12.24489795918367</v>
+      </c>
+      <c r="J58">
+        <v>20.49595200973648</v>
+      </c>
+      <c r="K58">
+        <v>-9.996179456391221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>20000</v>
+      </c>
+      <c r="C59">
+        <v>21708.33333333333</v>
+      </c>
+      <c r="D59">
+        <v>21708.33333333333</v>
+      </c>
+      <c r="E59">
+        <v>1708.333333333332</v>
+      </c>
+      <c r="F59">
+        <v>1708.333333333332</v>
+      </c>
+      <c r="G59">
+        <v>28041638.36050724</v>
+      </c>
+      <c r="H59">
+        <v>4186.141304347827</v>
+      </c>
+      <c r="I59">
+        <v>8.541666666666661</v>
+      </c>
+      <c r="J59">
+        <v>20.23607624140888</v>
+      </c>
+      <c r="K59">
+        <v>-9.719571567672832</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>19000</v>
+      </c>
+      <c r="C60">
+        <v>21750</v>
+      </c>
+      <c r="D60">
+        <v>21708.33333333333</v>
+      </c>
+      <c r="E60">
+        <v>2708.333333333332</v>
+      </c>
+      <c r="F60">
+        <v>2708.333333333332</v>
+      </c>
+      <c r="G60">
+        <v>27601073.0644208</v>
+      </c>
+      <c r="H60">
+        <v>4154.698581560285</v>
+      </c>
+      <c r="I60">
+        <v>14.25438596491228</v>
+      </c>
+      <c r="J60">
+        <v>20.10880623552597</v>
+      </c>
+      <c r="K60">
+        <v>-9.141256801450975</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>19500</v>
+      </c>
+      <c r="C61">
+        <v>21791.66666666667</v>
+      </c>
+      <c r="D61">
+        <v>21750</v>
+      </c>
+      <c r="E61">
+        <v>2250</v>
+      </c>
+      <c r="F61">
+        <v>2250</v>
+      </c>
+      <c r="G61">
+        <v>27131519.45891203</v>
+      </c>
+      <c r="H61">
+        <v>4115.01736111111</v>
+      </c>
+      <c r="I61">
+        <v>11.53846153846154</v>
+      </c>
+      <c r="J61">
+        <v>19.93025738767046</v>
+      </c>
+      <c r="K61">
+        <v>-8.682628414724185</v>
       </c>
     </row>
   </sheetData>

--- a/src/generated_spreadsheet.xlsx
+++ b/src/generated_spreadsheet.xlsx
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>22083</v>
+        <v>22083.33333333333</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1106,28 +1106,28 @@
         <v>8000</v>
       </c>
       <c r="C3">
-        <v>20674.7</v>
+        <v>20675</v>
       </c>
       <c r="D3">
-        <v>22083</v>
+        <v>22083.33333333333</v>
       </c>
       <c r="E3">
-        <v>14083</v>
+        <v>14083.33333333333</v>
       </c>
       <c r="F3">
-        <v>14083</v>
+        <v>14083.33333333333</v>
       </c>
       <c r="G3">
-        <v>198330889</v>
+        <v>198340277.7777777</v>
       </c>
       <c r="H3">
-        <v>14083</v>
+        <v>14083.33333333333</v>
       </c>
       <c r="I3">
-        <v>176.0375</v>
+        <v>176.0416666666667</v>
       </c>
       <c r="J3">
-        <v>176.0375</v>
+        <v>176.0416666666667</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1141,28 +1141,28 @@
         <v>13000</v>
       </c>
       <c r="C4">
-        <v>19907.23</v>
+        <v>19907.5</v>
       </c>
       <c r="D4">
-        <v>20674.7</v>
+        <v>20675</v>
       </c>
       <c r="E4">
-        <v>7674.700000000001</v>
+        <v>7675</v>
       </c>
       <c r="F4">
-        <v>7674.700000000001</v>
+        <v>7675</v>
       </c>
       <c r="G4">
-        <v>128615954.545</v>
+        <v>128622951.3888889</v>
       </c>
       <c r="H4">
-        <v>10878.85</v>
+        <v>10879.16666666667</v>
       </c>
       <c r="I4">
-        <v>59.03615384615385</v>
+        <v>59.03846153846154</v>
       </c>
       <c r="J4">
-        <v>117.5368269230769</v>
+        <v>117.5400641025641</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1176,31 +1176,31 @@
         <v>23000</v>
       </c>
       <c r="C5">
-        <v>20216.507</v>
+        <v>20216.75</v>
       </c>
       <c r="D5">
-        <v>19907.23</v>
+        <v>19907.5</v>
       </c>
       <c r="E5">
-        <v>-3092.77</v>
+        <v>-3092.5</v>
       </c>
       <c r="F5">
-        <v>3092.77</v>
+        <v>3092.5</v>
       </c>
       <c r="G5">
-        <v>88932378.4543</v>
+        <v>88936486.34259258</v>
       </c>
       <c r="H5">
-        <v>8283.49</v>
+        <v>8283.611111111111</v>
       </c>
       <c r="I5">
-        <v>13.44682608695652</v>
+        <v>13.44565217391304</v>
       </c>
       <c r="J5">
-        <v>82.84015997770345</v>
+        <v>82.84192679301374</v>
       </c>
       <c r="K5">
-        <v>2.253268851655522</v>
+        <v>2.253344958250897</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1211,31 +1211,31 @@
         <v>34000</v>
       </c>
       <c r="C6">
-        <v>21594.8563</v>
+        <v>21595.075</v>
       </c>
       <c r="D6">
-        <v>20216.507</v>
+        <v>20216.75</v>
       </c>
       <c r="E6">
-        <v>-13783.493</v>
+        <v>-13783.25</v>
       </c>
       <c r="F6">
-        <v>13783.493</v>
+        <v>13783.25</v>
       </c>
       <c r="G6">
-        <v>114195453.6609872</v>
+        <v>114196859.8975694</v>
       </c>
       <c r="H6">
-        <v>9658.490750000001</v>
+        <v>9658.520833333332</v>
       </c>
       <c r="I6">
-        <v>40.53968529411765</v>
+        <v>40.53897058823529</v>
       </c>
       <c r="J6">
-        <v>72.26504130680701</v>
+        <v>72.26618774181914</v>
       </c>
       <c r="K6">
-        <v>0.5054037039896737</v>
+        <v>0.5055208160324756</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1246,31 +1246,31 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>20435.37067</v>
+        <v>20435.5675</v>
       </c>
       <c r="D7">
-        <v>21594.8563</v>
+        <v>21595.075</v>
       </c>
       <c r="E7">
-        <v>11594.8563</v>
+        <v>11595.075</v>
       </c>
       <c r="F7">
-        <v>11594.8563</v>
+        <v>11595.075</v>
       </c>
       <c r="G7">
-        <v>118244501.4523197</v>
+        <v>118246640.7691805</v>
       </c>
       <c r="H7">
-        <v>10045.76386</v>
+        <v>10045.83166666667</v>
       </c>
       <c r="I7">
-        <v>115.948563</v>
+        <v>115.95075</v>
       </c>
       <c r="J7">
-        <v>81.00174564544561</v>
+        <v>81.00310019345531</v>
       </c>
       <c r="K7">
-        <v>1.640123491813793</v>
+        <v>1.640248301990594</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1281,31 +1281,31 @@
         <v>18000</v>
       </c>
       <c r="C8">
-        <v>20191.833603</v>
+        <v>20192.01075</v>
       </c>
       <c r="D8">
-        <v>20435.37067</v>
+        <v>20435.5675</v>
       </c>
       <c r="E8">
-        <v>2435.370670000004</v>
+        <v>2435.567500000001</v>
       </c>
       <c r="F8">
-        <v>2435.370670000004</v>
+        <v>2435.567500000001</v>
       </c>
       <c r="G8">
-        <v>99525589.59364916</v>
+        <v>99527532.14882648</v>
       </c>
       <c r="H8">
-        <v>8777.364995000002</v>
+        <v>8777.454305555555</v>
       </c>
       <c r="I8">
-        <v>13.52983705555558</v>
+        <v>13.53093055555556</v>
       </c>
       <c r="J8">
-        <v>69.7564275471306</v>
+        <v>69.75773858713869</v>
       </c>
       <c r="K8">
-        <v>2.154594685395102</v>
+        <v>2.154750702759284</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1316,31 +1316,31 @@
         <v>23000</v>
       </c>
       <c r="C9">
-        <v>20472.6502427</v>
+        <v>20472.809675</v>
       </c>
       <c r="D9">
-        <v>20191.833603</v>
+        <v>20192.01075</v>
       </c>
       <c r="E9">
-        <v>-2808.166396999997</v>
+        <v>-2807.989249999999</v>
       </c>
       <c r="F9">
-        <v>2808.166396999997</v>
+        <v>2807.989249999999</v>
       </c>
       <c r="G9">
-        <v>86434190.86787643</v>
+        <v>86435713.78872491</v>
       </c>
       <c r="H9">
-        <v>7924.622338142857</v>
+        <v>7924.673583333332</v>
       </c>
       <c r="I9">
-        <v>12.20941911739129</v>
+        <v>12.20864891304347</v>
       </c>
       <c r="J9">
-        <v>61.53542634288213</v>
+        <v>61.53644006226795</v>
       </c>
       <c r="K9">
-        <v>2.032083913386071</v>
+        <v>2.032290215360395</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1351,31 +1351,31 @@
         <v>38000</v>
       </c>
       <c r="C10">
-        <v>22225.38521843</v>
+        <v>22225.5287075</v>
       </c>
       <c r="D10">
-        <v>20472.6502427</v>
+        <v>20472.809675</v>
       </c>
       <c r="E10">
-        <v>-17527.3497573</v>
+        <v>-17527.190325</v>
       </c>
       <c r="F10">
-        <v>17527.3497573</v>
+        <v>17527.190325</v>
       </c>
       <c r="G10">
-        <v>114030915.6987324</v>
+        <v>114031549.651231</v>
       </c>
       <c r="H10">
-        <v>9124.963265537501</v>
+        <v>9124.988176041667</v>
       </c>
       <c r="I10">
-        <v>46.12460462447368</v>
+        <v>46.12418506578948</v>
       </c>
       <c r="J10">
-        <v>59.60907362808108</v>
+        <v>59.60990818770814</v>
       </c>
       <c r="K10">
-        <v>-0.1560392237059725</v>
+        <v>-0.1558307489537476</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1386,31 +1386,31 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>21202.846696587</v>
+        <v>21202.97583675</v>
       </c>
       <c r="D11">
-        <v>22225.38521843</v>
+        <v>22225.5287075</v>
       </c>
       <c r="E11">
-        <v>10225.38521843</v>
+        <v>10225.5287075</v>
       </c>
       <c r="F11">
-        <v>10225.38521843</v>
+        <v>10225.5287075</v>
       </c>
       <c r="G11">
-        <v>112978425.3839051</v>
+        <v>112979314.9508616</v>
       </c>
       <c r="H11">
-        <v>9247.232371414446</v>
+        <v>9247.270457314815</v>
       </c>
       <c r="I11">
-        <v>85.21154348691667</v>
+        <v>85.21273922916667</v>
       </c>
       <c r="J11">
-        <v>62.45379250128503</v>
+        <v>62.45466719231464</v>
       </c>
       <c r="K11">
-        <v>0.9518018668307501</v>
+        <v>0.9520187612626271</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1421,31 +1421,31 @@
         <v>13000</v>
       </c>
       <c r="C12">
-        <v>20382.5620269283</v>
+        <v>20382.678253075</v>
       </c>
       <c r="D12">
-        <v>21202.846696587</v>
+        <v>21202.97583675</v>
       </c>
       <c r="E12">
-        <v>8202.846696587003</v>
+        <v>8202.975836750004</v>
       </c>
       <c r="F12">
-        <v>8202.846696587003</v>
+        <v>8202.975836750004</v>
       </c>
       <c r="G12">
-        <v>108409252.2382855</v>
+        <v>108410264.7136059</v>
       </c>
       <c r="H12">
-        <v>9142.793803931701</v>
+        <v>9142.840995258335</v>
       </c>
       <c r="I12">
-        <v>63.09882074297695</v>
+        <v>63.09981412884618</v>
       </c>
       <c r="J12">
-        <v>62.51829532545422</v>
+        <v>62.5191818859678</v>
       </c>
       <c r="K12">
-        <v>1.859866917637864</v>
+        <v>1.860094779227079</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1456,31 +1456,31 @@
         <v>32000</v>
       </c>
       <c r="C13">
-        <v>21544.30582423547</v>
+        <v>21544.4104277675</v>
       </c>
       <c r="D13">
-        <v>20382.5620269283</v>
+        <v>20382.678253075</v>
       </c>
       <c r="E13">
-        <v>-11617.4379730717</v>
+        <v>-11617.321746925</v>
       </c>
       <c r="F13">
-        <v>11617.4379730717</v>
+        <v>11617.321746925</v>
       </c>
       <c r="G13">
-        <v>110823398.8582748</v>
+        <v>110824073.7916033</v>
       </c>
       <c r="H13">
-        <v>9367.7614556717</v>
+        <v>9367.793790864394</v>
       </c>
       <c r="I13">
-        <v>36.30449366584905</v>
+        <v>36.30413045914062</v>
       </c>
       <c r="J13">
-        <v>60.13522244730829</v>
+        <v>60.13599539261987</v>
       </c>
       <c r="K13">
-        <v>0.575051124341323</v>
+        <v>0.5752933055501281</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1491,31 +1491,31 @@
         <v>41000</v>
       </c>
       <c r="C14">
-        <v>23489.87524181193</v>
+        <v>23489.96938499075</v>
       </c>
       <c r="D14">
-        <v>21544.30582423547</v>
+        <v>21544.4104277675</v>
       </c>
       <c r="E14">
-        <v>-19455.69417576453</v>
+        <v>-19455.5895722325</v>
       </c>
       <c r="F14">
-        <v>19455.69417576453</v>
+        <v>19455.5895722325</v>
       </c>
       <c r="G14">
-        <v>133131785.2751584</v>
+        <v>133132064.7758998</v>
       </c>
       <c r="H14">
-        <v>10208.42251567944</v>
+        <v>10208.44343931174</v>
       </c>
       <c r="I14">
-        <v>47.45291262381592</v>
+        <v>47.45265749324999</v>
       </c>
       <c r="J14">
-        <v>59.07836329535059</v>
+        <v>59.07905056767238</v>
       </c>
       <c r="K14">
-        <v>-1.378151462335201</v>
+        <v>-1.377914331425489</v>
       </c>
     </row>
   </sheetData>

--- a/src/generated_spreadsheet.xlsx
+++ b/src/generated_spreadsheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Year</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Reintroduce Seasonality</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Forecast</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>TS</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Forecast</t>
   </si>
 </sst>
 </file>
@@ -398,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +429,29 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -452,8 +473,29 @@
       <c r="H2">
         <v>8502.508656632041</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>502.5086566320406</v>
+      </c>
+      <c r="J2">
+        <v>502.5086566320406</v>
+      </c>
+      <c r="K2">
+        <v>252514.9499901381</v>
+      </c>
+      <c r="L2">
+        <v>502.5086566320406</v>
+      </c>
+      <c r="M2">
+        <v>6.281358207900507</v>
+      </c>
+      <c r="N2">
+        <v>6.281358207900507</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="B3">
         <v>2</v>
       </c>
@@ -472,8 +514,29 @@
       <c r="H3">
         <v>14626.24974143281</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>1626.249741432808</v>
+      </c>
+      <c r="J3">
+        <v>1626.249741432808</v>
+      </c>
+      <c r="K3">
+        <v>1448601.585750207</v>
+      </c>
+      <c r="L3">
+        <v>1064.379199032424</v>
+      </c>
+      <c r="M3">
+        <v>12.50961339563699</v>
+      </c>
+      <c r="N3">
+        <v>9.395485801768746</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="B4">
         <v>3</v>
       </c>
@@ -495,8 +558,29 @@
       <c r="H4">
         <v>21909.99663412993</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>-1090.003365870074</v>
+      </c>
+      <c r="J4">
+        <v>1090.003365870074</v>
+      </c>
+      <c r="K4">
+        <v>1361770.169702835</v>
+      </c>
+      <c r="L4">
+        <v>1072.920587978308</v>
+      </c>
+      <c r="M4">
+        <v>4.739145069000323</v>
+      </c>
+      <c r="N4">
+        <v>7.843372224179272</v>
+      </c>
+      <c r="O4">
+        <v>0.9681564915741707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="B5">
         <v>4</v>
       </c>
@@ -518,8 +602,29 @@
       <c r="H5">
         <v>34240.81015321891</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>240.8101532189103</v>
+      </c>
+      <c r="J5">
+        <v>240.8101532189103</v>
+      </c>
+      <c r="K5">
+        <v>1035825.009750455</v>
+      </c>
+      <c r="L5">
+        <v>864.8929792884583</v>
+      </c>
+      <c r="M5">
+        <v>0.7082651565262067</v>
+      </c>
+      <c r="N5">
+        <v>6.059595457266005</v>
+      </c>
+      <c r="O5">
+        <v>1.479449152733758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -541,8 +646,29 @@
       <c r="H6">
         <v>9441.968139370634</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>-558.0318606293658</v>
+      </c>
+      <c r="J6">
+        <v>558.0318606293658</v>
+      </c>
+      <c r="K6">
+        <v>890939.9192958582</v>
+      </c>
+      <c r="L6">
+        <v>803.5207555566398</v>
+      </c>
+      <c r="M6">
+        <v>5.580318606293658</v>
+      </c>
+      <c r="N6">
+        <v>5.963740087071536</v>
+      </c>
+      <c r="O6">
+        <v>0.897964762944395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="B7">
         <v>6</v>
       </c>
@@ -561,8 +687,29 @@
       <c r="H7">
         <v>16198.89270714013</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>-1801.107292859871</v>
+      </c>
+      <c r="J7">
+        <v>1801.107292859871</v>
+      </c>
+      <c r="K7">
+        <v>1283114.512812051</v>
+      </c>
+      <c r="L7">
+        <v>969.7851784405117</v>
+      </c>
+      <c r="M7">
+        <v>10.00615162699929</v>
+      </c>
+      <c r="N7">
+        <v>6.637475343726162</v>
+      </c>
+      <c r="O7">
+        <v>-1.113209391188664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="B8">
         <v>7</v>
       </c>
@@ -581,8 +728,29 @@
       <c r="H8">
         <v>24204.13475124563</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1204.134751245634</v>
+      </c>
+      <c r="J8">
+        <v>1204.134751245634</v>
+      </c>
+      <c r="K8">
+        <v>1306946.79657567</v>
+      </c>
+      <c r="L8">
+        <v>1003.263688841243</v>
+      </c>
+      <c r="M8">
+        <v>5.235368483676671</v>
+      </c>
+      <c r="N8">
+        <v>6.437174363719092</v>
+      </c>
+      <c r="O8">
+        <v>0.1241555779955994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="B9">
         <v>8</v>
       </c>
@@ -601,8 +769,29 @@
       <c r="H9">
         <v>37734.61845061236</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>-265.3815493876391</v>
+      </c>
+      <c r="J9">
+        <v>265.3815493876391</v>
+      </c>
+      <c r="K9">
+        <v>1152381.867848134</v>
+      </c>
+      <c r="L9">
+        <v>911.0284214095429</v>
+      </c>
+      <c r="M9">
+        <v>0.6983724983885239</v>
+      </c>
+      <c r="N9">
+        <v>5.71982413055277</v>
+      </c>
+      <c r="O9">
+        <v>-0.1545734061728606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -624,8 +813,29 @@
       <c r="H10">
         <v>10381.42762210923</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>-1618.57237789077</v>
+      </c>
+      <c r="J10">
+        <v>1618.57237789077</v>
+      </c>
+      <c r="K10">
+        <v>1315425.720584006</v>
+      </c>
+      <c r="L10">
+        <v>989.6444165741237</v>
+      </c>
+      <c r="M10">
+        <v>13.48810314908975</v>
+      </c>
+      <c r="N10">
+        <v>6.582966243723546</v>
+      </c>
+      <c r="O10">
+        <v>-1.777803334857243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="B11">
         <v>10</v>
       </c>
@@ -644,8 +854,29 @@
       <c r="H11">
         <v>17771.53567284745</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>4771.535672847454</v>
+      </c>
+      <c r="J11">
+        <v>4771.535672847454</v>
+      </c>
+      <c r="K11">
+        <v>3460638.416251187</v>
+      </c>
+      <c r="L11">
+        <v>1367.833542201457</v>
+      </c>
+      <c r="M11">
+        <v>36.70412056036503</v>
+      </c>
+      <c r="N11">
+        <v>9.595081675387695</v>
+      </c>
+      <c r="O11">
+        <v>2.20212652768497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="B12">
         <v>11</v>
       </c>
@@ -661,8 +892,29 @@
       <c r="H12">
         <v>26498.27286836134</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>-5501.727131638658</v>
+      </c>
+      <c r="J12">
+        <v>5501.727131638658</v>
+      </c>
+      <c r="K12">
+        <v>5897762.326683709</v>
+      </c>
+      <c r="L12">
+        <v>1743.642050332111</v>
+      </c>
+      <c r="M12">
+        <v>17.1928972863708</v>
+      </c>
+      <c r="N12">
+        <v>10.28579218547707</v>
+      </c>
+      <c r="O12">
+        <v>-1.427807159402551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="B13">
         <v>12</v>
       </c>
@@ -677,6 +929,27 @@
       </c>
       <c r="H13">
         <v>41228.42674800581</v>
+      </c>
+      <c r="I13">
+        <v>228.4267480058115</v>
+      </c>
+      <c r="J13">
+        <v>228.4267480058115</v>
+      </c>
+      <c r="K13">
+        <v>5410630.364393776</v>
+      </c>
+      <c r="L13">
+        <v>1617.374108471586</v>
+      </c>
+      <c r="M13">
+        <v>0.5571384097702721</v>
+      </c>
+      <c r="N13">
+        <v>9.475071037501502</v>
+      </c>
+      <c r="O13">
+        <v>-1.398042569774105</v>
       </c>
     </row>
   </sheetData>
@@ -700,31 +973,31 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1063,31 +1336,31 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11">
